--- a/config/testcases/Report_VideoCall.xlsx
+++ b/config/testcases/Report_VideoCall.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="szKtktG3Pn9AmiRCOOhHM+aHZc5v25CAYrJ4xIG0MrQ="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="Z30FjKVh/aOJkdTfQEUc+bUoiLHtEcJ8IZ++5wtCa9s="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="107">
   <si>
     <t>TCID</t>
   </si>
@@ -237,6 +237,9 @@
     <t>$.video_question</t>
   </si>
   <si>
+    <t>TS5</t>
+  </si>
+  <si>
     <t>Kiểm tra video câu hỏi</t>
   </si>
   <si>
@@ -244,9 +247,6 @@
   </si>
   <si>
     <t>$.path,/,mp4</t>
-  </si>
-  <si>
-    <t>TS5</t>
   </si>
   <si>
     <t>Kiểm tra text câu hỏi</t>
@@ -297,6 +297,9 @@
     <t>$.video_teacher1</t>
   </si>
   <si>
+    <t>Đợi text câu sub phản ứng giáo viên xuất hiện</t>
+  </si>
+  <si>
     <t>Kiểm tra phản ứng giáo viên_video</t>
   </si>
   <si>
@@ -309,7 +312,7 @@
     <t>deFindModeRunTestCase</t>
   </si>
   <si>
-    <t>video2,TestCase,8,9</t>
+    <t>video_teacher2,TestCase,8,9</t>
   </si>
   <si>
     <t xml:space="preserve">Đợi mic start ghi âm </t>
@@ -319,6 +322,9 @@
   </si>
   <si>
     <t>$.answer_answer2</t>
+  </si>
+  <si>
+    <t>Mic-Normal</t>
   </si>
   <si>
     <t>$.video_teacher2</t>
@@ -445,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -577,6 +583,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -30406,7 +30421,7 @@
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="42" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="37"/>
@@ -30449,10 +30464,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="43"/>
@@ -30461,10 +30476,10 @@
         <v>12</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J12" s="36"/>
       <c r="K12" s="44" t="s">
@@ -30478,7 +30493,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>76</v>
@@ -30675,33 +30690,32 @@
       <c r="N19" s="38"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="32" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="14"/>
-      <c r="N20" s="38"/>
+      <c r="D20" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="24" t="s">
@@ -30719,29 +30733,31 @@
       <c r="G21" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
+      <c r="H21" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>75</v>
+      </c>
       <c r="J21" s="36"/>
-      <c r="K21" s="44"/>
+      <c r="K21" s="44" t="s">
+        <v>91</v>
+      </c>
       <c r="M21" s="14"/>
       <c r="N21" s="38"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>96</v>
-      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="34"/>
       <c r="G22" s="35" t="s">
         <v>12</v>
@@ -30755,19 +30771,19 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="33" t="s">
         <v>97</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>98</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="35" t="s">
@@ -30785,18 +30801,18 @@
         <v>26</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="38"/>
+        <v>99</v>
+      </c>
+      <c r="F24" s="34"/>
       <c r="G24" s="35" t="s">
         <v>12</v>
       </c>
@@ -30812,20 +30828,18 @@
         <v>26</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>99</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F25" s="38"/>
       <c r="G25" s="35" t="s">
         <v>12</v>
       </c>
@@ -30841,18 +30855,20 @@
         <v>26</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="34"/>
+        <v>87</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>100</v>
+      </c>
       <c r="G26" s="35" t="s">
         <v>12</v>
       </c>
@@ -30865,19 +30881,19 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="35" t="s">
@@ -30895,20 +30911,18 @@
         <v>28</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>100</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F28" s="34"/>
       <c r="G28" s="35" t="s">
         <v>12</v>
       </c>
@@ -30924,27 +30938,27 @@
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
+        <v>68</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>102</v>
+      </c>
       <c r="G29" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="I29" s="45" t="s">
-        <v>74</v>
-      </c>
+      <c r="H29" s="44"/>
+      <c r="I29" s="45"/>
       <c r="J29" s="36"/>
-      <c r="K29" s="44" t="s">
-        <v>100</v>
-      </c>
+      <c r="K29" s="44"/>
       <c r="M29" s="14"/>
       <c r="N29" s="38"/>
     </row>
@@ -30953,53 +30967,110 @@
         <v>28</v>
       </c>
       <c r="B30" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C31" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" s="36"/>
+      <c r="K31" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35" t="s">
+      <c r="M31" s="14"/>
+      <c r="N31" s="38"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H32" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="45" t="s">
+      <c r="I32" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="J30" s="36"/>
-      <c r="K30" s="44"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="38"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="44"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="38"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L30 M1:N1">
+  <conditionalFormatting sqref="L1:L32 M1:N1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L30 M1:N1">
+  <conditionalFormatting sqref="L1:L32 M1:N1">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L30 M1:N1">
+  <conditionalFormatting sqref="L1:L32 M1:N1">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G30">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G32">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A30">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A32">
       <formula1>TestCase!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D30 H2:H30">
-      <formula1>Keywords!$A$2:$A30</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D32 H2:H32">
+      <formula1>Keywords!$A$2:$A32</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -31024,16 +31095,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="12"/>

--- a/config/testcases/Report_VideoCall.xlsx
+++ b/config/testcases/Report_VideoCall.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="71Holm0TF3zQvINOPEk0Mxkte7LXiorRWaEFLS8vahM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="QZ04OHBdpjiF0ylyw1BkeoyFkHiaGZ0on9b6aQitgmM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="109">
   <si>
     <t>TCID</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Mic-Normal,30</t>
   </si>
   <si>
-    <t>Xác định gameobject chứa video</t>
+    <t>Kiểm tra video câu hỏi</t>
   </si>
   <si>
     <t>returnPathContain</t>
@@ -184,12 +184,6 @@
   </si>
   <si>
     <t>$.video_question</t>
-  </si>
-  <si>
-    <t>TS2</t>
-  </si>
-  <si>
-    <t>Kiểm tra video câu hỏi</t>
   </si>
   <si>
     <t>getVideoUrl</t>
@@ -225,7 +219,10 @@
     <t>waitForObjectNotPresent</t>
   </si>
   <si>
-    <t>MicroGameAI,300</t>
+    <t>MicroGameAI,500</t>
+  </si>
+  <si>
+    <t>TS2</t>
   </si>
   <si>
     <t>Đợi list topic xuất hiện</t>
@@ -270,6 +267,9 @@
     <t>QuestionHolderMKText/TxtQuestion</t>
   </si>
   <si>
+    <t>Xác định gameobject chứa video</t>
+  </si>
+  <si>
     <t>TS5</t>
   </si>
   <si>
@@ -297,9 +297,6 @@
     <t>Mic-Working,Button,onClick()</t>
   </si>
   <si>
-    <t>Mic-Normal,45</t>
-  </si>
-  <si>
     <t>$.video_teacher1</t>
   </si>
   <si>
@@ -315,9 +312,6 @@
     <t>$.teacher_answer1</t>
   </si>
   <si>
-    <t>Kiểm tra phản ứng giáo viên_video</t>
-  </si>
-  <si>
     <t>Xác định có thu âm lần 2</t>
   </si>
   <si>
@@ -331,6 +325,9 @@
   </si>
   <si>
     <t>$.answer_answer2</t>
+  </si>
+  <si>
+    <t>Mic-Normal,45</t>
   </si>
   <si>
     <t>Kiểm tra phản ứng giáo viên_text_2</t>
@@ -576,10 +573,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1401,7 +1398,7 @@
     <col customWidth="1" min="5" max="5" width="39.5"/>
     <col customWidth="1" min="6" max="6" width="20.75"/>
     <col customWidth="1" min="7" max="7" width="10.63"/>
-    <col customWidth="1" min="8" max="8" width="18.25"/>
+    <col customWidth="1" min="8" max="8" width="23.0"/>
     <col customWidth="1" min="9" max="9" width="49.88"/>
     <col customWidth="1" min="10" max="10" width="19.25"/>
     <col customWidth="1" min="11" max="11" width="28.38"/>
@@ -1532,11 +1529,17 @@
       <c r="G4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="38"/>
+      <c r="H4" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>56</v>
+      </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="39"/>
+      <c r="K4" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="38"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
     </row>
@@ -1545,28 +1548,30 @@
         <v>15</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="36"/>
-      <c r="E5" s="38"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="36"/>
       <c r="G5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="33" t="s">
+      <c r="H5" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="I5" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>60</v>
+      </c>
       <c r="K5" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="39"/>
+        <v>60</v>
+      </c>
+      <c r="L5" s="38"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
@@ -1575,78 +1580,74 @@
         <v>15</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="38"/>
+        <v>62</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>63</v>
+      </c>
       <c r="F6" s="36"/>
       <c r="G6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="39"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="38"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" ht="23.25" customHeight="1">
-      <c r="A7" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="35" t="s">
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="40" t="s">
+      <c r="D7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37" t="s">
+      <c r="E7" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="F8" s="23"/>
       <c r="G8" s="22" t="s">
         <v>14</v>
       </c>
@@ -1658,106 +1659,105 @@
       <c r="M8" s="26"/>
       <c r="N8" s="23"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>69</v>
+        <v>47</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="23"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="34"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="D10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="34"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22" t="s">
+      <c r="E11" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="23"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="34"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="31" t="s">
@@ -1775,18 +1775,18 @@
         <v>19</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="34"/>
+        <v>50</v>
+      </c>
+      <c r="F13" s="30"/>
       <c r="G13" s="31" t="s">
         <v>14</v>
       </c>
@@ -1798,86 +1798,94 @@
       <c r="N13" s="34"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31" t="s">
+      <c r="E14" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="34"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="40" t="s">
+      <c r="B15" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="D15" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>54</v>
+      </c>
       <c r="G15" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="H15" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="32"/>
+      <c r="K15" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="34"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>54</v>
-      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
+      <c r="H16" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
+      <c r="K16" s="27" t="s">
+        <v>54</v>
+      </c>
       <c r="M16" s="9"/>
       <c r="N16" s="34"/>
     </row>
@@ -1886,26 +1894,28 @@
         <v>21</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="43"/>
+        <v>57</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="34"/>
       <c r="G17" s="42" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="32"/>
+        <v>59</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>60</v>
+      </c>
       <c r="K17" s="27" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="34"/>
@@ -1915,56 +1925,52 @@
         <v>21</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
       <c r="F18" s="34"/>
       <c r="G18" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>62</v>
-      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
       <c r="M18" s="9"/>
       <c r="N18" s="34"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>49</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="F19" s="34"/>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="40"/>
       <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
+      <c r="K19" s="27"/>
       <c r="M19" s="9"/>
       <c r="N19" s="34"/>
     </row>
@@ -1973,18 +1979,20 @@
         <v>22</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="34"/>
+        <v>89</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>90</v>
+      </c>
       <c r="G20" s="31" t="s">
         <v>14</v>
       </c>
@@ -2000,20 +2008,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>90</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F21" s="30"/>
       <c r="G21" s="31" t="s">
         <v>14</v>
       </c>
@@ -2032,22 +2038,30 @@
         <v>47</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>92</v>
+      </c>
       <c r="G22" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="40"/>
+      <c r="H22" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="J22" s="32"/>
-      <c r="K22" s="27"/>
+      <c r="K22" s="27" t="s">
+        <v>92</v>
+      </c>
       <c r="M22" s="9"/>
       <c r="N22" s="34"/>
     </row>
@@ -2056,134 +2070,132 @@
         <v>24</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>92</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="30"/>
       <c r="G23" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
+      <c r="H23" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>96</v>
+      </c>
       <c r="M23" s="9"/>
       <c r="N23" s="34"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>93</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F24" s="30"/>
       <c r="G24" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="40"/>
       <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
+      <c r="K24" s="27"/>
       <c r="M24" s="9"/>
       <c r="N24" s="34"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
+        <v>100</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>63</v>
+      </c>
       <c r="F25" s="30"/>
       <c r="G25" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>97</v>
-      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="27"/>
       <c r="M25" s="9"/>
       <c r="N25" s="34"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="34"/>
       <c r="G26" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="40" t="s">
-        <v>58</v>
-      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="40"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="27" t="s">
-        <v>93</v>
-      </c>
+      <c r="K26" s="27"/>
       <c r="M26" s="9"/>
       <c r="N26" s="34"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E27" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="30"/>
       <c r="G27" s="31" t="s">
         <v>14</v>
       </c>
@@ -2199,16 +2211,16 @@
         <v>28</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="31" t="s">
@@ -2223,21 +2235,21 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>49</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="34"/>
+        <v>102</v>
+      </c>
+      <c r="F29" s="30"/>
       <c r="G29" s="31" t="s">
         <v>14</v>
       </c>
@@ -2250,172 +2262,89 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="30" t="s">
         <v>103</v>
       </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="30"/>
       <c r="G30" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="27"/>
+      <c r="H30" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>104</v>
+      </c>
       <c r="M30" s="9"/>
       <c r="N30" s="34"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>91</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
       <c r="F31" s="30"/>
       <c r="G31" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="40"/>
+      <c r="H31" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="J31" s="32"/>
-      <c r="K31" s="27"/>
+      <c r="K31" s="27" t="s">
+        <v>106</v>
+      </c>
       <c r="M31" s="9"/>
       <c r="N31" s="34"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="27"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="27"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="34"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I33" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="J33" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="K33" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="M33" s="9"/>
-      <c r="N33" s="34"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="J34" s="32"/>
-      <c r="K34" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="M34" s="9"/>
-      <c r="N34" s="34"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L34 M1:N1">
+  <conditionalFormatting sqref="L1:L31 M1:N1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L34 M1:N1">
+  <conditionalFormatting sqref="L1:L31 M1:N1">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L34 M1:N1">
+  <conditionalFormatting sqref="L1:L31 M1:N1">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G34">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G31">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A34">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A31">
       <formula1>TestCase!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D34 H2:H34">
-      <formula1>Keywords!$A$2:$A34</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D31 H2:H31">
+      <formula1>Keywords!$A$2:$A31</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -2444,10 +2373,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>108</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>109</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>1</v>

--- a/config/testcases/Report_VideoCall.xlsx
+++ b/config/testcases/Report_VideoCall.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="QZ04OHBdpjiF0ylyw1BkeoyFkHiaGZ0on9b6aQitgmM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="tc6Au9v8lO0HMmTq7S5kHZZtRLG2cXxS+V+nZkHm02k="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="109">
   <si>
     <t>TCID</t>
   </si>
@@ -171,7 +171,7 @@
     <t>waitForObject</t>
   </si>
   <si>
-    <t>Mic-Normal,30</t>
+    <t>QuestionHolderMKText/TxtQuestion,30</t>
   </si>
   <si>
     <t>Kiểm tra video câu hỏi</t>
@@ -261,6 +261,9 @@
     <t>Telephone,Button,onClick()</t>
   </si>
   <si>
+    <t>Mic-Normal,30</t>
+  </si>
+  <si>
     <t>Đợi câu hỏi xuất hiện</t>
   </si>
   <si>
@@ -291,15 +294,6 @@
     <t>Mic-Working,Button,onClick()</t>
   </si>
   <si>
-    <t>Đợi mic waitting</t>
-  </si>
-  <si>
-    <t>Mic-Waiting</t>
-  </si>
-  <si>
-    <t>$.video_teacher1</t>
-  </si>
-  <si>
     <t>TS5</t>
   </si>
   <si>
@@ -313,6 +307,9 @@
   </si>
   <si>
     <t>$.teacher_answer1</t>
+  </si>
+  <si>
+    <t>$.video_teacher1</t>
   </si>
   <si>
     <t>Xác định có thu âm lần 2</t>
@@ -1784,7 +1781,7 @@
         <v>49</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="31" t="s">
@@ -1805,13 +1802,13 @@
         <v>47</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="42" t="s">
@@ -1896,7 +1893,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>62</v>
@@ -1926,13 +1923,13 @@
         <v>42</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="31" t="s">
@@ -1953,16 +1950,16 @@
         <v>67</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G19" s="31" t="s">
         <v>14</v>
@@ -1988,7 +1985,7 @@
         <v>71</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="31" t="s">
@@ -2003,28 +2000,32 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>91</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="27"/>
+      <c r="H21" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>95</v>
+      </c>
       <c r="M21" s="9"/>
       <c r="N21" s="34"/>
     </row>
@@ -2045,7 +2046,7 @@
         <v>53</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G22" s="31" t="s">
         <v>14</v>
@@ -2058,57 +2059,53 @@
       </c>
       <c r="J22" s="32"/>
       <c r="K22" s="27" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="34"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
+        <v>97</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>99</v>
+      </c>
       <c r="F23" s="30"/>
       <c r="G23" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>97</v>
-      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="27"/>
       <c r="M23" s="9"/>
       <c r="N23" s="34"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="31" t="s">
@@ -2126,18 +2123,18 @@
         <v>28</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="F25" s="34"/>
       <c r="G25" s="31" t="s">
         <v>14</v>
       </c>
@@ -2153,18 +2150,20 @@
         <v>28</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="34"/>
+        <v>88</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>101</v>
+      </c>
       <c r="G26" s="31" t="s">
         <v>14</v>
       </c>
@@ -2180,20 +2179,18 @@
         <v>28</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>102</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F27" s="30"/>
       <c r="G27" s="31" t="s">
         <v>14</v>
       </c>
@@ -2206,19 +2203,19 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="31" t="s">
@@ -2236,25 +2233,29 @@
         <v>30</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="29" t="s">
         <v>103</v>
       </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="30"/>
       <c r="G29" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="27"/>
+      <c r="H29" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>104</v>
+      </c>
       <c r="M29" s="9"/>
       <c r="N29" s="34"/>
     </row>
@@ -2263,10 +2264,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
@@ -2275,74 +2276,43 @@
         <v>14</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="I30" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>105</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="J30" s="32"/>
       <c r="K30" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="34"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="J31" s="32"/>
-      <c r="K31" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="34"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L31 M1:N1">
+  <conditionalFormatting sqref="L1:L30 M1:N1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L31 M1:N1">
+  <conditionalFormatting sqref="L1:L30 M1:N1">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L31 M1:N1">
+  <conditionalFormatting sqref="L1:L30 M1:N1">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G31">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G30">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A31">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A30">
       <formula1>TestCase!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D31 H2:H31">
-      <formula1>Keywords!$A$2:$A31</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D30 H2:H30">
+      <formula1>Keywords!$A$2:$A30</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -2371,10 +2341,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>108</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>109</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>1</v>

--- a/config/testcases/Report_VideoCall.xlsx
+++ b/config/testcases/Report_VideoCall.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="113">
   <si>
     <t>TCID</t>
   </si>
@@ -306,9 +306,6 @@
     <t>Mic-Normal,10</t>
   </si>
   <si>
-    <t>$.video_teacher1</t>
-  </si>
-  <si>
     <t>TS5</t>
   </si>
   <si>
@@ -322,6 +319,9 @@
   </si>
   <si>
     <t>$.teacher_answer1</t>
+  </si>
+  <si>
+    <t>$.video_teacher1</t>
   </si>
   <si>
     <t>Xác định có thu âm lần 2</t>
@@ -342,16 +342,16 @@
     <t>Mic-Normal,45</t>
   </si>
   <si>
+    <t>Kiểm tra phản ứng giáo viên_video_2</t>
+  </si>
+  <si>
+    <t>$.video_teacher2</t>
+  </si>
+  <si>
     <t>Kiểm tra phản ứng giáo viên_text_2</t>
   </si>
   <si>
     <t>$.teacher_answer2</t>
-  </si>
-  <si>
-    <t>Kiểm tra phản ứng giáo viên_video_2</t>
-  </si>
-  <si>
-    <t>$.video_teacher2</t>
   </si>
   <si>
     <t>Loop</t>
@@ -2049,28 +2049,28 @@
         <v>24</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>51</v>
+        <v>95</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>96</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="29"/>
-      <c r="F22" s="27"/>
+      <c r="F22" s="30"/>
       <c r="G22" s="31" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="K22" s="43" t="s">
-        <v>84</v>
+        <v>99</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="34"/>
@@ -2080,28 +2080,28 @@
         <v>24</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>97</v>
+        <v>47</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="31" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="J23" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="K23" s="27" t="s">
-        <v>100</v>
+      <c r="K23" s="43" t="s">
+        <v>84</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="34"/>
@@ -2275,26 +2275,30 @@
         <v>30</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30"/>
+      <c r="D30" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>108</v>
+      </c>
       <c r="G30" s="31" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="I30" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>108</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="J30" s="32"/>
       <c r="K30" s="27" t="s">
         <v>108</v>
       </c>
@@ -2306,24 +2310,26 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="28"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="29"/>
       <c r="F31" s="30"/>
       <c r="G31" s="31" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="I31" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="J31" s="32"/>
+        <v>98</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>110</v>
+      </c>
       <c r="K31" s="27" t="s">
         <v>110</v>
       </c>
@@ -2353,7 +2359,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A31">
       <formula1>TestCase!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D31 H2:H31">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D30 H2:H31">
       <formula1>Keywords!$A$2:$A31</formula1>
     </dataValidation>
   </dataValidations>

--- a/config/testcases/Report_VideoCall.xlsx
+++ b/config/testcases/Report_VideoCall.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="81QcoB5r7/j3CsAlYdYTdormsURdZmU6YBm3SqUvDCk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="0R2BK9lx9XhEyuCoACp63w9SD/IvpsL6l0Z8QyON3HQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="110">
   <si>
     <t>TCID</t>
   </si>
@@ -67,12 +67,6 @@
   </si>
   <si>
     <t>TC1_1</t>
-  </si>
-  <si>
-    <t>Kiểm tra size câu hỏi</t>
-  </si>
-  <si>
-    <t>TC1_2</t>
   </si>
   <si>
     <t>Kiểm tra câu hỏi</t>
@@ -162,37 +156,13 @@
     <t>returnChooseTopic</t>
   </si>
   <si>
-    <t>TestCase,4,6,3</t>
+    <t>TestCase,3,5,2</t>
   </si>
   <si>
     <t>$.part</t>
   </si>
   <si>
-    <t>TS2</t>
-  </si>
-  <si>
-    <t>Xác định mode tc</t>
-  </si>
-  <si>
-    <t>ignoreScript</t>
-  </si>
-  <si>
-    <t>5,2,TestCase</t>
-  </si>
-  <si>
-    <t>$.question</t>
-  </si>
-  <si>
     <t>TS3</t>
-  </si>
-  <si>
-    <t>Đợi mic xuất hiện</t>
-  </si>
-  <si>
-    <t>waitForObject</t>
-  </si>
-  <si>
-    <t>Mic-Normal,10</t>
   </si>
   <si>
     <t>Kiểm tra text câu hỏi</t>
@@ -204,10 +174,13 @@
     <t>QuestionHolderMKText/TxtQuestion,TextMeshProUGUI,Mic-Working</t>
   </si>
   <si>
+    <t>$.question</t>
+  </si>
+  <si>
     <t>Kiểm tra video câu hỏi</t>
   </si>
   <si>
-    <t>returnPathContain</t>
+    <t>getVideoUrl</t>
   </si>
   <si>
     <t>VideoPlayer*,VideoPlayer,url</t>
@@ -216,16 +189,16 @@
     <t>$.video_question</t>
   </si>
   <si>
-    <t>getVideoUrl</t>
-  </si>
-  <si>
-    <t>$.path,/,mp4</t>
+    <t>$.video_question_boolean_</t>
   </si>
   <si>
     <t>TS4</t>
   </si>
   <si>
     <t>Đợi mic start ghi âm</t>
+  </si>
+  <si>
+    <t>waitForObject</t>
   </si>
   <si>
     <t>Mic-Working,10</t>
@@ -238,6 +211,9 @@
   </si>
   <si>
     <t>MicroGameAI,500</t>
+  </si>
+  <si>
+    <t>TS2</t>
   </si>
   <si>
     <t>Đợi list topic xuất hiện</t>
@@ -276,6 +252,9 @@
     <t>Telephone,Button,onClick()</t>
   </si>
   <si>
+    <t>Đợi mic xuất hiện</t>
+  </si>
+  <si>
     <t>Mic-Normal,30</t>
   </si>
   <si>
@@ -283,12 +262,6 @@
   </si>
   <si>
     <t>QuestionHolderMKText/TxtQuestion</t>
-  </si>
-  <si>
-    <t>VideoPlayer*,VideoPlayer,url,/,mp4</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>TS6</t>
@@ -318,9 +291,6 @@
     <t>Mic-Working,Button,onClick()</t>
   </si>
   <si>
-    <t>$.video_teacher1</t>
-  </si>
-  <si>
     <t>TS5</t>
   </si>
   <si>
@@ -334,6 +304,12 @@
   </si>
   <si>
     <t>$.teacher_answer1</t>
+  </si>
+  <si>
+    <t>$.video_teacher1</t>
+  </si>
+  <si>
+    <t>$.video_teacher1_boolean_</t>
   </si>
   <si>
     <t>Xác định có thu âm lần 2</t>
@@ -351,7 +327,13 @@
     <t>$.answer_answer2</t>
   </si>
   <si>
-    <t>Mic-Normal,45</t>
+    <t>Kiểm tra phản ứng giáo viên_text_2</t>
+  </si>
+  <si>
+    <t>QuestionHolderMKText/TxtQuestion,TextMeshProUGUI,30</t>
+  </si>
+  <si>
+    <t>$.teacher_answer2</t>
   </si>
   <si>
     <t>Kiểm tra phản ứng giáo viên_video_2</t>
@@ -360,10 +342,7 @@
     <t>$.video_teacher2</t>
   </si>
   <si>
-    <t>Kiểm tra phản ứng giáo viên_text_2</t>
-  </si>
-  <si>
-    <t>$.teacher_answer2</t>
+    <t>$.video_teacher2_boolean_</t>
   </si>
   <si>
     <t>Loop</t>
@@ -376,7 +355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -412,6 +391,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Times New Roman&quot;"/>
     </font>
   </fonts>
   <fills count="11">
@@ -567,13 +551,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -584,36 +592,12 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1080,7 +1064,7 @@
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1152,8 +1136,8 @@
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>22</v>
+      <c r="B6" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>14</v>
@@ -1161,8 +1145,8 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -1186,10 +1170,10 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>14</v>
@@ -1364,68 +1348,32 @@
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D12">
+  <conditionalFormatting sqref="D1:D11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D12">
+  <conditionalFormatting sqref="D1:D11">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D12">
+  <conditionalFormatting sqref="D1:D11">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C12">
+  <conditionalFormatting sqref="C1:C11">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C11">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H11">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1471,43 +1419,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="J1" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="23.25" customHeight="1">
@@ -1515,19 +1463,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="F2" s="21" t="s">
         <v>46</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>48</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>14</v>
@@ -1540,206 +1488,200 @@
       <c r="M2" s="26"/>
       <c r="N2" s="23"/>
     </row>
-    <row r="3" ht="23.25" customHeight="1">
-      <c r="A3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="19" t="s">
+    <row r="3" ht="39.75" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="I3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="J3" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="K3" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="35"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" ht="23.25" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="23"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>57</v>
-      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="31"/>
       <c r="G4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="34"/>
-    </row>
-    <row r="5" ht="39.75" customHeight="1">
-      <c r="A5" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="29" t="s">
+      <c r="H4" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="J4" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" ht="23.25" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="36" t="s">
+      <c r="D5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="27" t="str">
-        <f>F3</f>
-        <v>$.question</v>
-      </c>
-      <c r="K5" s="27" t="str">
-        <f>J5</f>
-        <v>$.question</v>
-      </c>
-      <c r="L5" s="38"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="35"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" ht="23.25" customHeight="1">
-      <c r="A6" s="28" t="s">
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="21"/>
+      <c r="G6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="23"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="C7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" ht="23.25" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="D8" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="37" t="s">
+      <c r="E8" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="36" t="s">
+      <c r="F8" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="23"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="41"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>56</v>
+        <v>71</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="23"/>
+        <v>72</v>
+      </c>
+      <c r="F9" s="21"/>
       <c r="G9" s="22" t="s">
         <v>14</v>
       </c>
@@ -1756,656 +1698,568 @@
         <v>19</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="34"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="23"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="41"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="32" t="s">
+      <c r="B13" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="34"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="34"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="J15" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="K15" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="34"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="41"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="43" t="s">
-        <v>89</v>
-      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="34"/>
+      <c r="N16" s="41"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="28" t="s">
-        <v>53</v>
-      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="27"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="34"/>
+      <c r="N17" s="41"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="40" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="33"/>
-      <c r="J18" s="27"/>
+      <c r="J18" s="31"/>
       <c r="K18" s="27"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="34"/>
+      <c r="N18" s="41"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="28"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="27"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="34"/>
+      <c r="N19" s="41"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28"/>
+      <c r="K20" s="27" t="s">
+        <v>94</v>
+      </c>
       <c r="M20" s="9"/>
-      <c r="N20" s="34"/>
+      <c r="N20" s="41"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
+      <c r="J21" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>96</v>
+      </c>
       <c r="M21" s="9"/>
-      <c r="N21" s="34"/>
+      <c r="N21" s="41"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22" s="43" t="s">
-        <v>89</v>
-      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="27"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="34"/>
+      <c r="N22" s="41"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32" t="s">
+      <c r="D23" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="K23" s="28" t="s">
-        <v>104</v>
-      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="27"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="34"/>
+      <c r="N23" s="41"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="27"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="34"/>
+      <c r="N24" s="41"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="27"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="34"/>
+      <c r="N25" s="41"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="27"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="34"/>
+      <c r="N26" s="41"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="28"/>
+      <c r="H27" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>104</v>
+      </c>
       <c r="M27" s="9"/>
-      <c r="N27" s="34"/>
+      <c r="N27" s="41"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="28"/>
+      <c r="H28" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>107</v>
+      </c>
       <c r="M28" s="9"/>
-      <c r="N28" s="34"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="28"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="34"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="J30" s="27"/>
-      <c r="K30" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="M30" s="9"/>
-      <c r="N30" s="34"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="I31" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="J31" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="K31" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="34"/>
+      <c r="N28" s="41"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L31 M1:N1">
+  <conditionalFormatting sqref="L1:L28 M1:N1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L31 M1:N1">
+  <conditionalFormatting sqref="L1:L28 M1:N1">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L31 M1:N1">
+  <conditionalFormatting sqref="L1:L28 M1:N1">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G31">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G28">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A31">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A28">
       <formula1>TestCase!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D30 H2:H31">
-      <formula1>Keywords!$A$2:$A31</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D26 D28 H2:H28">
+      <formula1>Keywords!$A$2:$A28</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -2434,10 +2288,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>1</v>
@@ -4975,17 +4829,14 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
-        <v>sendKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
+        <v>getVideoUrl</v>
       </c>
       <c r="B65" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
-        <v>element,component[,property],expect</v>
-      </c>
-      <c r="C65" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
+        <v>element,component,key,expected</v>
+      </c>
+      <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="48"/>
       <c r="F65" s="48"/>
@@ -5012,26 +4863,20 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
-        <v>getResultByKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
+        <v>sendKey</v>
       </c>
       <c r="B66" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
-        <v>element,component,key</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
+        <v>element,component[,property],expect</v>
       </c>
       <c r="C66" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D66" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
-        <v>key = //$.Page[0].Id</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D66" s="48"/>
       <c r="E66" s="48"/>
-      <c r="F66" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
-        <v>return value by key in json array object</v>
-      </c>
+      <c r="F66" s="48"/>
       <c r="G66" s="48"/>
       <c r="H66" s="48"/>
       <c r="I66" s="48"/>
@@ -5055,22 +4900,25 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
-        <v>returnPath</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
+        <v>getResultByKey</v>
       </c>
       <c r="B67" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
+        <v>element,component,key</v>
       </c>
       <c r="C67" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D67" s="48"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D67" s="48" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
+        <v>key = //$.Page[0].Id</v>
+      </c>
       <c r="E67" s="48"/>
       <c r="F67" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
+        <v>return value by key in json array object</v>
       </c>
       <c r="G67" s="48"/>
       <c r="H67" s="48"/>
@@ -5095,8 +4943,8 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
-        <v>returnPathContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
+        <v>returnPath</v>
       </c>
       <c r="B68" s="48" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
@@ -5135,8 +4983,8 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
-        <v>returnIndex</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
+        <v>returnPathContain</v>
       </c>
       <c r="B69" s="48" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
@@ -5149,8 +4997,8 @@
       <c r="D69" s="48"/>
       <c r="E69" s="48"/>
       <c r="F69" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
-        <v>"index" in variable file</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
       </c>
       <c r="G69" s="48"/>
       <c r="H69" s="48"/>
@@ -5175,20 +5023,23 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
-        <v>getSentenceByText</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
+        <v>returnIndex</v>
       </c>
       <c r="B70" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
-        <v>element,component[,split string]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C70" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D70" s="48"/>
       <c r="E70" s="48"/>
-      <c r="F70" s="48"/>
+      <c r="F70" s="48" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
+        <v>"index" in variable file</v>
+      </c>
       <c r="G70" s="48"/>
       <c r="H70" s="48"/>
       <c r="I70" s="48"/>
@@ -5212,16 +5063,16 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
-        <v>setTagGameObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
+        <v>getSentenceByText</v>
       </c>
       <c r="B71" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
-        <v>element,tagName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
+        <v>element,component[,split string]</v>
       </c>
       <c r="C71" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D71" s="48"/>
       <c r="E71" s="48"/>
@@ -5249,12 +5100,12 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
-        <v>drag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
+        <v>setTagGameObject</v>
       </c>
       <c r="B72" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
+        <v>element,tagName</v>
       </c>
       <c r="C72" s="48" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5286,12 +5137,12 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
-        <v>returnChooseTopic</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
+        <v>drag</v>
       </c>
       <c r="B73" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
-        <v>from,to,exception,part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C73" s="48" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5300,10 +5151,7 @@
       <c r="D73" s="48"/>
       <c r="E73" s="48"/>
       <c r="F73" s="48"/>
-      <c r="G73" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KeyWordCustomForAISpeak")</f>
-        <v>KeyWordCustomForAISpeak</v>
-      </c>
+      <c r="G73" s="48"/>
       <c r="H73" s="48"/>
       <c r="I73" s="48"/>
       <c r="J73" s="48"/>
@@ -5326,12 +5174,12 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
-        <v>deFindModeRunTestCase</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B74" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
-        <v>key,sheetName,from,to</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
+        <v>from,to,exception,part</v>
       </c>
       <c r="C74" s="48" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5366,12 +5214,12 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
-        <v>returnModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B75" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
-        <v>sheetName,to,expected,contain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
+        <v>part</v>
       </c>
       <c r="C75" s="48" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5403,12 +5251,12 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
-        <v>ignoreScript</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
+        <v>deFindModeRunTestCase</v>
       </c>
       <c r="B76" s="48" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
-        <v>number,to,sheetName,text</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
+        <v>key,sheetName,from,to</v>
       </c>
       <c r="C76" s="48" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5417,7 +5265,10 @@
       <c r="D76" s="48"/>
       <c r="E76" s="48"/>
       <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
+      <c r="G76" s="48" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KeyWordCustomForAISpeak")</f>
+        <v>KeyWordCustomForAISpeak</v>
+      </c>
       <c r="H76" s="48"/>
       <c r="I76" s="48"/>
       <c r="J76" s="48"/>
@@ -5439,9 +5290,18 @@
       <c r="Z76" s="48"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="48"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="48"/>
+      <c r="A77" s="48" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
+        <v>returnModeTC</v>
+      </c>
+      <c r="B77" s="48" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
+        <v>sheetName,to,expected,contain</v>
+      </c>
+      <c r="C77" s="48" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D77" s="48"/>
       <c r="E77" s="48"/>
       <c r="F77" s="48"/>
@@ -5467,9 +5327,18 @@
       <c r="Z77" s="48"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="48"/>
-      <c r="B78" s="48"/>
-      <c r="C78" s="48"/>
+      <c r="A78" s="48" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
+        <v>ignoreScript</v>
+      </c>
+      <c r="B78" s="48" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
+        <v>number,to,sheetName,text</v>
+      </c>
+      <c r="C78" s="48" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D78" s="48"/>
       <c r="E78" s="48"/>
       <c r="F78" s="48"/>
@@ -5495,9 +5364,18 @@
       <c r="Z78" s="48"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="48"/>
-      <c r="B79" s="48"/>
-      <c r="C79" s="48"/>
+      <c r="A79" s="48" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
+        <v>setRunModeTC</v>
+      </c>
+      <c r="B79" s="48" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
+        <v>from,to,exception</v>
+      </c>
+      <c r="C79" s="48" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D79" s="48"/>
       <c r="E79" s="48"/>
       <c r="F79" s="48"/>
